--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>_id</t>
   </si>
@@ -37,22 +37,34 @@
     <t>__v</t>
   </si>
   <si>
-    <t>"656340540bedad18d107b963"</t>
-  </si>
-  <si>
-    <t>65633fef0bedad18d107b958</t>
-  </si>
-  <si>
-    <t>Ate pani puri at jumidha hills</t>
+    <t>"6564aa22df1b9705e8b87a0d"</t>
+  </si>
+  <si>
+    <t>6564a8c7df1b9705e8b879f7</t>
+  </si>
+  <si>
+    <t>ertdf</t>
   </si>
   <si>
     <t>Food</t>
   </si>
   <si>
-    <t>"656341892204e8e2f1eb0d35"</t>
-  </si>
-  <si>
-    <t>thhh</t>
+    <t>"6564aa5ddf1b9705e8b87a1b"</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>"6564acfadf1b9705e8b87a34"</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>"6564acffdf1b9705e8b87a39"</t>
+  </si>
+  <si>
+    <t>"6564ad04df1b9705e8b87a3e"</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -467,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -476,10 +488,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>45256.5387505324</v>
+        <v>45257.61077157407</v>
       </c>
       <c r="G3" s="1">
-        <v>45256.5387505324</v>
+        <v>45257.61077157407</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -493,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -502,12 +514,90 @@
         <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>45256.54233399306</v>
+        <v>45257.61145722222</v>
       </c>
       <c r="G4" s="1">
-        <v>45256.54233399306</v>
+        <v>45257.61145722222</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45257.61919377315</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45257.61919377315</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45257.619253784724</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45257.619253784724</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45257.61931635417</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45257.61931635417</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>_id</t>
   </si>
@@ -37,34 +37,22 @@
     <t>__v</t>
   </si>
   <si>
-    <t>"6564aa22df1b9705e8b87a0d"</t>
-  </si>
-  <si>
-    <t>6564a8c7df1b9705e8b879f7</t>
-  </si>
-  <si>
-    <t>ertdf</t>
+    <t>"6582cd838c005b030256fea2"</t>
+  </si>
+  <si>
+    <t>6582cd348c005b030256fe8f</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>Food</t>
   </si>
   <si>
-    <t>"6564aa5ddf1b9705e8b87a1b"</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>"6564acfadf1b9705e8b87a34"</t>
-  </si>
-  <si>
-    <t>ty</t>
-  </si>
-  <si>
-    <t>"6564acffdf1b9705e8b87a39"</t>
-  </si>
-  <si>
-    <t>"6564ad04df1b9705e8b87a3e"</t>
+    <t>"6582d2d38c005b030256fec6"</t>
+  </si>
+  <si>
+    <t>this is</t>
   </si>
 </sst>
 </file>
@@ -442,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -488,10 +476,10 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>45257.61077157407</v>
+        <v>45280.471148599536</v>
       </c>
       <c r="G3" s="1">
-        <v>45257.61077157407</v>
+        <v>45280.471148599536</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -505,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -514,90 +502,12 @@
         <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>45257.61145722222</v>
+        <v>45280.486892245375</v>
       </c>
       <c r="G4" s="1">
-        <v>45257.61145722222</v>
+        <v>45280.486892245375</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45257.61919377315</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45257.61919377315</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45257.619253784724</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45257.619253784724</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45257.61931635417</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45257.61931635417</v>
-      </c>
-      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>_id</t>
   </si>
@@ -37,22 +37,16 @@
     <t>__v</t>
   </si>
   <si>
-    <t>"6582cd838c005b030256fea2"</t>
-  </si>
-  <si>
-    <t>6582cd348c005b030256fe8f</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>"658d37fcd3cb29a14b7efda2"</t>
+  </si>
+  <si>
+    <t>658d37d9d3cb29a14b7efd99</t>
+  </si>
+  <si>
+    <t>this is descii</t>
   </si>
   <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>"6582d2d38c005b030256fec6"</t>
-  </si>
-  <si>
-    <t>this is</t>
   </si>
 </sst>
 </file>
@@ -430,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -467,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -476,38 +470,12 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>45280.471148599536</v>
+        <v>45288.3718136574</v>
       </c>
       <c r="G3" s="1">
-        <v>45280.471148599536</v>
+        <v>45288.3718136574</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45280.486892245375</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45280.486892245375</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>_id</t>
   </si>
@@ -37,16 +37,190 @@
     <t>__v</t>
   </si>
   <si>
-    <t>"658d37fcd3cb29a14b7efda2"</t>
-  </si>
-  <si>
-    <t>658d37d9d3cb29a14b7efd99</t>
+    <t>"6582cd838c005b030256fea2"</t>
+  </si>
+  <si>
+    <t>6582cd348c005b030256fe8f</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>"6582d2d38c005b030256fec6"</t>
+  </si>
+  <si>
+    <t>this is</t>
+  </si>
+  <si>
+    <t>"6593bb9c286ca7171420f015"</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>"6594b673c8fb768904dd38f9"</t>
+  </si>
+  <si>
+    <t>"6594b683c8fb768904dd38fd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this </t>
+  </si>
+  <si>
+    <t>"6594b6aec8fb768904dd3901"</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>"659631bb8c97761e6989b769"</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>"659632688c97761e6989b76d"</t>
+  </si>
+  <si>
+    <t>this is fesciii</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>"659668855da75f9ae6faf6ae"</t>
+  </si>
+  <si>
+    <t>"6596693a5da75f9ae6faf6b6"</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>"659669515da75f9ae6faf6be"</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>"659669b85da75f9ae6faf6ca"</t>
   </si>
   <si>
     <t>this is descii</t>
   </si>
   <si>
-    <t>Food</t>
+    <t>"65969d8abcc062d3b6851092"</t>
+  </si>
+  <si>
+    <t>this is desicc</t>
+  </si>
+  <si>
+    <t>"65969d91bcc062d3b6851096"</t>
+  </si>
+  <si>
+    <t>"6596a247bcc062d3b68510c0"</t>
+  </si>
+  <si>
+    <t>"6596a254bcc062d3b68510c4"</t>
+  </si>
+  <si>
+    <t>this is foodi</t>
+  </si>
+  <si>
+    <t>"6596a3d1bcc062d3b68510d6"</t>
+  </si>
+  <si>
+    <t>the issues</t>
+  </si>
+  <si>
+    <t>"6596a49abcc062d3b68510ee"</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>"65994b88ee62732f6a6c840f"</t>
+  </si>
+  <si>
+    <t>this is lol</t>
+  </si>
+  <si>
+    <t>"659c97fcfba92e5d771458ac"</t>
+  </si>
+  <si>
+    <t>"659cc794ec4ec101f8095eb5"</t>
+  </si>
+  <si>
+    <t>this is defcii</t>
+  </si>
+  <si>
+    <t>"659ccad5ec4ec101f8095f43"</t>
+  </si>
+  <si>
+    <t>"659ccadbec4ec101f8095f47"</t>
+  </si>
+  <si>
+    <t>"659ccbe7ec4ec101f8095f4b"</t>
+  </si>
+  <si>
+    <t>"659ccbf6ec4ec101f8095f4f"</t>
+  </si>
+  <si>
+    <t>"659ccc08ec4ec101f8095f53"</t>
+  </si>
+  <si>
+    <t>"659ccc62ec4ec101f8095f7b"</t>
+  </si>
+  <si>
+    <t>"659ccd7cec4ec101f8095f87"</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>"659ccda6ec4ec101f8095f8b"</t>
+  </si>
+  <si>
+    <t>"659d06bc64f0fbab0424dbc3"</t>
+  </si>
+  <si>
+    <t>this is for you...</t>
+  </si>
+  <si>
+    <t>"659d708ad0e01286d8c81d8b"</t>
+  </si>
+  <si>
+    <t>this is good</t>
+  </si>
+  <si>
+    <t>"659d70c2d0e01286d8c81d8f"</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>"659d7128d0e01286d8c81da3"</t>
+  </si>
+  <si>
+    <t>"659d713ed0e01286d8c81db1"</t>
+  </si>
+  <si>
+    <t>rth</t>
+  </si>
+  <si>
+    <t>"659d7160d0e01286d8c81dbd"</t>
+  </si>
+  <si>
+    <t>this dort</t>
+  </si>
+  <si>
+    <t>"659d7176d0e01286d8c81dc3"</t>
+  </si>
+  <si>
+    <t>th</t>
   </si>
 </sst>
 </file>
@@ -424,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -461,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -470,12 +644,904 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>45288.3718136574</v>
+        <v>45280.471148599536</v>
       </c>
       <c r="G3" s="1">
-        <v>45288.3718136574</v>
+        <v>45280.471148599536</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45280.486892245375</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45280.486892245375</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45293.31291787037</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45293.31291787037</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45294.05615744213</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45294.05615744213</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45294.05633952546</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45294.05633952546</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45294.05683184028</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45294.05683184028</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45295.17994967593</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45295.17994967593</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45295.181952569445</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45295.181952569445</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45295.34228336805</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45295.34228336805</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45295.3443841088</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45295.3443841088</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45295.344641435186</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45295.344641435186</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45295.345837002315</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45295.345837002315</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45295.49937903935</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45295.49937903935</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45295.4994622338</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45295.4994622338</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45295.51341811343</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45295.51341811343</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45295.51357627315</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45295.51357627315</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45295.51797777778</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45295.51797777778</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45295.52030344907</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45295.52030344907</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45297.53195189815</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45297.53195189815</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45300.03403582176</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45300.03403582176</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45300.175057430555</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45300.175057430555</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45300.184690243055</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45300.184690243055</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45300.18476440972</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45300.18476440972</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45300.187859467595</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45300.187859467595</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45300.18803399305</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45300.18803399305</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45300.18824425926</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45300.18824425926</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45300.189293310184</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45300.189293310184</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45300.19255228009</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45300.19255228009</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45300.193040150465</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45300.193040150465</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45300.36217953704</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45300.36217953704</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45300.67568166667</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45300.67568166667</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45300.67632489583</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45300.67632489583</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45300.6775028588</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45300.6775028588</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45300.67776148148</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45300.67776148148</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45300.678154305555</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45300.678154305555</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45300.67840659722</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45300.67840659722</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
     </row>
